--- a/Admin Screens.xlsx
+++ b/Admin Screens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Teenagers" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Parents" sheetId="3" r:id="rId3"/>
     <sheet name="Schools" sheetId="4" r:id="rId4"/>
     <sheet name="Professions" sheetId="5" r:id="rId5"/>
+    <sheet name="Sponsor Coupons" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="138">
   <si>
     <t>Teenagers  Add / Edit Screen</t>
   </si>
@@ -375,13 +376,70 @@
   </si>
   <si>
     <t>Text Editor</t>
+  </si>
+  <si>
+    <t>Coupons Listing</t>
+  </si>
+  <si>
+    <t>Coupons  Bulk Upload (csv)</t>
+  </si>
+  <si>
+    <t>File Upload</t>
+  </si>
+  <si>
+    <t>csv format</t>
+  </si>
+  <si>
+    <t>CSV Sample Format</t>
+  </si>
+  <si>
+    <t>CouponName</t>
+  </si>
+  <si>
+    <t>CouponCode</t>
+  </si>
+  <si>
+    <t>CouponDesc</t>
+  </si>
+  <si>
+    <t>Summer Offer</t>
+  </si>
+  <si>
+    <t>CouponSponsorID</t>
+  </si>
+  <si>
+    <t>CouponLevelID</t>
+  </si>
+  <si>
+    <t>CouponProfessionID</t>
+  </si>
+  <si>
+    <t>HDC006</t>
+  </si>
+  <si>
+    <t>Valid Till 31st Desc 2016</t>
+  </si>
+  <si>
+    <t>ValidFrom</t>
+  </si>
+  <si>
+    <t>ValidTo</t>
+  </si>
+  <si>
+    <t>This Will go under the menu of Sponsor</t>
+  </si>
+  <si>
+    <t>2016-03-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2016-03-03 11:32:24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,6 +458,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -545,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -693,6 +760,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,7 +1076,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:I15"/>
+      <selection activeCell="A22" sqref="A22:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,8 +3225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3456,4 +3534,229 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="56">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>1</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>5</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Admin Screens.xlsx
+++ b/Admin Screens.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Teenagers" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Schools" sheetId="4" r:id="rId4"/>
     <sheet name="Professions" sheetId="5" r:id="rId5"/>
     <sheet name="Sponsor Coupons" sheetId="6" r:id="rId6"/>
+    <sheet name="CMS Management" sheetId="7" r:id="rId7"/>
+    <sheet name="Email Template" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="157">
   <si>
     <t>Teenagers  Add / Edit Screen</t>
   </si>
@@ -433,13 +435,70 @@
   </si>
   <si>
     <t>2016-03-03 11:32:24</t>
+  </si>
+  <si>
+    <t>CMS  Add / Edit Screen</t>
+  </si>
+  <si>
+    <t>cms_subject</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>cms_slug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slug </t>
+  </si>
+  <si>
+    <t>cms_body</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>CMS Listing</t>
+  </si>
+  <si>
+    <t>Slug</t>
+  </si>
+  <si>
+    <t>Email Template Add / Edit Screen</t>
+  </si>
+  <si>
+    <t>et_templatename</t>
+  </si>
+  <si>
+    <t>et_templatepseudoname</t>
+  </si>
+  <si>
+    <t>Pseudo Name</t>
+  </si>
+  <si>
+    <t>et_subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text </t>
+  </si>
+  <si>
+    <t>et_body</t>
+  </si>
+  <si>
+    <t>Email Template Listing</t>
+  </si>
+  <si>
+    <t>t_gender</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -608,11 +667,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -740,37 +836,49 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,7 +969,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -896,7 +1003,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1072,14 +1178,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -1093,20 +1199,20 @@
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9" ht="35.25" customHeight="1">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +1241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1164,7 +1270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1193,7 +1299,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1222,7 +1328,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1249,7 +1355,7 @@
       </c>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1278,7 +1384,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1307,45 +1413,45 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="10">
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="3">
-        <v>25</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>104</v>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="10">
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1</v>
@@ -1357,80 +1463,78 @@
         <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="10">
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="G11" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="10">
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="10">
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>47</v>
@@ -1442,25 +1546,27 @@
         <v>49</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="10">
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>49</v>
@@ -1469,22 +1575,22 @@
         <v>49</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="10">
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>1</v>
@@ -1498,25 +1604,23 @@
       <c r="H15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="10">
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>49</v>
@@ -1525,27 +1629,27 @@
         <v>49</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="10">
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>49</v>
@@ -1554,21 +1658,21 @@
         <v>49</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="10">
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>42</v>
@@ -1589,234 +1693,263 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="10">
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
-        <v>18</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="E20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="14">
+        <v>19</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="17" t="s">
+      <c r="E21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
-        <v>1</v>
-      </c>
-      <c r="B25" s="19" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" s="18">
+        <v>1</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
+      <c r="C26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="21">
         <v>2</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+      <c r="C27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="21">
         <v>3</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="C28" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="21">
         <v>4</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="C29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="21">
         <v>5</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="C30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="21">
         <v>6</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B31" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+      <c r="C31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="21">
         <v>7</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
+      <c r="C32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="21">
         <v>8</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B33" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
+      <c r="C33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="21">
         <v>9</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
+      <c r="C34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="23">
         <v>10</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B35" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="25" t="s">
+      <c r="C35" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="25" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="A23:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1824,14 +1957,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:I11"/>
+      <selection activeCell="C11" sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
@@ -1844,20 +1977,20 @@
     <col min="9" max="9" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1886,7 +2019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -1915,7 +2048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="30">
         <v>2</v>
       </c>
@@ -1944,7 +2077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="30">
         <v>3</v>
       </c>
@@ -1973,7 +2106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="30">
         <v>4</v>
       </c>
@@ -2002,7 +2135,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="30">
         <v>5</v>
       </c>
@@ -2031,7 +2164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="30">
         <v>6</v>
       </c>
@@ -2060,7 +2193,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="30">
         <v>7</v>
       </c>
@@ -2089,7 +2222,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="30">
         <v>8</v>
       </c>
@@ -2118,7 +2251,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="30">
         <v>9</v>
       </c>
@@ -2147,7 +2280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="30">
         <v>10</v>
       </c>
@@ -2174,7 +2307,7 @@
       </c>
       <c r="I12" s="33"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="31">
         <v>11</v>
       </c>
@@ -2203,21 +2336,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="54"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -2231,7 +2364,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="28">
         <v>1</v>
       </c>
@@ -2245,7 +2378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="30">
         <v>2</v>
       </c>
@@ -2259,7 +2392,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="30">
         <v>3</v>
       </c>
@@ -2273,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="30">
         <v>4</v>
       </c>
@@ -2287,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="30">
         <v>5</v>
       </c>
@@ -2301,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="30">
         <v>6</v>
       </c>
@@ -2315,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="30">
         <v>7</v>
       </c>
@@ -2329,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="31">
         <v>8</v>
       </c>
@@ -2353,14 +2486,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -2373,20 +2506,20 @@
     <col min="9" max="9" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2415,7 +2548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -2444,7 +2577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="30">
         <v>2</v>
       </c>
@@ -2473,7 +2606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="30">
         <v>3</v>
       </c>
@@ -2502,7 +2635,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="30">
         <v>4</v>
       </c>
@@ -2531,7 +2664,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="30">
         <v>5</v>
       </c>
@@ -2560,7 +2693,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="30">
         <v>6</v>
       </c>
@@ -2589,7 +2722,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="30">
         <v>7</v>
       </c>
@@ -2616,7 +2749,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -2645,21 +2778,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -2673,7 +2806,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="28">
         <v>1</v>
       </c>
@@ -2687,7 +2820,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="30">
         <v>2</v>
       </c>
@@ -2701,7 +2834,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="30">
         <v>3</v>
       </c>
@@ -2715,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="30">
         <v>4</v>
       </c>
@@ -2729,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="30">
         <v>5</v>
       </c>
@@ -2743,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="31">
         <v>6</v>
       </c>
@@ -2767,14 +2900,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -2787,20 +2920,20 @@
     <col min="9" max="9" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9" ht="30.75" customHeight="1">
+      <c r="A1" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2829,7 +2962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -2858,7 +2991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="30">
         <v>2</v>
       </c>
@@ -2887,7 +3020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="30">
         <v>3</v>
       </c>
@@ -2916,7 +3049,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="30">
         <v>4</v>
       </c>
@@ -2945,7 +3078,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -2974,7 +3107,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -3001,7 +3134,7 @@
       </c>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -3030,7 +3163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -3057,7 +3190,7 @@
       </c>
       <c r="I10" s="33"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="31">
         <v>10</v>
       </c>
@@ -3086,21 +3219,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="54"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
@@ -3114,7 +3247,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="28">
         <v>1</v>
       </c>
@@ -3128,7 +3261,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="30">
         <v>2</v>
       </c>
@@ -3142,7 +3275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="30">
         <v>3</v>
       </c>
@@ -3156,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="30">
         <v>4</v>
       </c>
@@ -3170,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="30">
         <v>5</v>
       </c>
@@ -3184,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="30">
         <v>6</v>
       </c>
@@ -3198,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="31">
         <v>7</v>
       </c>
@@ -3222,14 +3355,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -3242,20 +3375,20 @@
     <col min="9" max="9" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3284,7 +3417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -3313,7 +3446,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="30">
         <v>2</v>
       </c>
@@ -3342,7 +3475,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="30">
         <v>3</v>
       </c>
@@ -3371,7 +3504,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="30">
         <v>4</v>
       </c>
@@ -3400,7 +3533,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="31">
         <v>5</v>
       </c>
@@ -3429,21 +3562,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -3457,7 +3590,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="28">
         <v>1</v>
       </c>
@@ -3471,7 +3604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="30">
         <v>2</v>
       </c>
@@ -3485,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="30">
         <v>3</v>
       </c>
@@ -3499,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="30">
         <v>4</v>
       </c>
@@ -3513,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="31">
         <v>5</v>
       </c>
@@ -3537,14 +3670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
@@ -3552,82 +3685,82 @@
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.28515625" style="46" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
-        <v>1</v>
-      </c>
-      <c r="B2" s="50" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="48">
+        <v>1</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="50"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="43"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="47" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -3637,28 +3770,28 @@
       <c r="C6" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="46" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -3672,7 +3805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="28">
         <v>1</v>
       </c>
@@ -3686,7 +3819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="30">
         <v>2</v>
       </c>
@@ -3700,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="30">
         <v>3</v>
       </c>
@@ -3714,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="30">
         <v>4</v>
       </c>
@@ -3728,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="31">
         <v>5</v>
       </c>
@@ -3742,12 +3875,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3759,4 +3892,590 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="29">
+        <v>6</v>
+      </c>
+      <c r="G3" s="29">
+        <v>50</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="30">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="30">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="31">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="28">
+        <v>1</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="30">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="30">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="31">
+        <v>4</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A8:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="29">
+        <v>6</v>
+      </c>
+      <c r="G3" s="29">
+        <v>50</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="30">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="30">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="30">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="31">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="28">
+        <v>1</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="30">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="30">
+        <v>3</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="30">
+        <v>4</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="31">
+        <v>5</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Admin Screens.xlsx
+++ b/Admin Screens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Teenagers" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Sponsor Coupons" sheetId="6" r:id="rId6"/>
     <sheet name="CMS Management" sheetId="7" r:id="rId7"/>
     <sheet name="Email Template" sheetId="8" r:id="rId8"/>
+    <sheet name="Level1 Activity" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="167">
   <si>
     <t>Teenagers  Add / Edit Screen</t>
   </si>
@@ -492,6 +493,36 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>l1ac_text</t>
+  </si>
+  <si>
+    <t>l1ac_points</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Required , Numeric</t>
+  </si>
+  <si>
+    <t>l1op_option</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Level1 Activity Add / Edit Screen</t>
+  </si>
+  <si>
+    <t>Level1 Activity Listing</t>
+  </si>
+  <si>
+    <t>Options</t>
   </si>
 </sst>
 </file>
@@ -847,38 +878,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,7 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -1200,17 +1231,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1">
       <c r="A2" s="5" t="s">
@@ -1779,18 +1810,18 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
@@ -1978,17 +2009,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
@@ -2337,18 +2368,18 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
@@ -2507,17 +2538,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
@@ -2779,18 +2810,18 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
@@ -2921,17 +2952,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
@@ -3220,18 +3251,18 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
@@ -3376,17 +3407,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
@@ -3563,18 +3594,18 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
@@ -3690,17 +3721,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="48">
@@ -3722,17 +3753,17 @@
       <c r="I2" s="43"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="44" t="s">
@@ -3778,18 +3809,18 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
@@ -3876,11 +3907,11 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3916,17 +3947,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
@@ -4074,18 +4105,18 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
@@ -4171,7 +4202,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A9" sqref="A9:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4187,17 +4218,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
@@ -4374,18 +4405,18 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="53" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
@@ -4478,4 +4509,289 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="30">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="30">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="31">
+        <v>4</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="28">
+        <v>1</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="30">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="30">
+        <v>3</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="30">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="31">
+        <v>5</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A8:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>